--- a/raw_data/eurostat/nuts2_emp_sbs_9507.xlsx
+++ b/raw_data/eurostat/nuts2_emp_sbs_9507.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aml/AutoEmp/raw_data/eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A5B8F5-4934-1B4E-89AC-1ED2E68416F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3850DD13-F2AF-2E4D-A754-9E737E42BA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8087" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8087" uniqueCount="229">
   <si>
     <t>SBS data by NUTS 2 regions (NUTS 2006) and NACE Rev. 1.1 (1995-2007) [sbs_r_nuts03__custom_12459273]</t>
   </si>
@@ -746,7 +746,37 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>91</t>
+    <t>ind16</t>
+  </si>
+  <si>
+    <t>ind23</t>
+  </si>
+  <si>
+    <t>ind28</t>
+  </si>
+  <si>
+    <t>ind91</t>
+  </si>
+  <si>
+    <t>ind10_12</t>
+  </si>
+  <si>
+    <t>ind13_15</t>
+  </si>
+  <si>
+    <t>ind17_18</t>
+  </si>
+  <si>
+    <t>ind19_22</t>
+  </si>
+  <si>
+    <t>ind24_25</t>
+  </si>
+  <si>
+    <t>ind26_27</t>
+  </si>
+  <si>
+    <t>ind29_30</t>
   </si>
 </sst>
 </file>
@@ -914,20 +944,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1341,22 +1371,22 @@
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1707,234 +1737,234 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="20" t="s">
+      <c r="T9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AF9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AL9" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="N10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="V10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="20" t="s">
+      <c r="X10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AF10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AH10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AH10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AJ10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AL10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4750,6 +4780,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AE9:AF9"/>
@@ -4758,36 +4818,6 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4894,234 +4924,234 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="20" t="s">
+      <c r="T9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AF9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AL9" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="N10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="V10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="20" t="s">
+      <c r="X10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AF10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AH10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AH10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AJ10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AL10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7937,6 +7967,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AE9:AF9"/>
@@ -7945,36 +8005,6 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8081,234 +8111,234 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="20" t="s">
+      <c r="T9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AF9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AL9" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="N10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="V10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="20" t="s">
+      <c r="X10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AF10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AH10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AH10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AJ10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AL10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -11124,6 +11154,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AE9:AF9"/>
@@ -11132,36 +11192,6 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11268,234 +11298,234 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="20" t="s">
+      <c r="T9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AF9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AL9" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="N10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="V10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="20" t="s">
+      <c r="X10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AF10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AH10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AH10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AJ10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AL10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -14311,6 +14341,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AE9:AF9"/>
@@ -14319,36 +14379,6 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14455,234 +14485,234 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="20" t="s">
+      <c r="T9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AF9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AL9" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="N10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="V10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="20" t="s">
+      <c r="X10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AF10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AH10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AH10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AJ10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AL10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -17498,6 +17528,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AE9:AF9"/>
@@ -17506,36 +17566,6 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17642,234 +17672,234 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="20" t="s">
+      <c r="T9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AF9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AL9" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="N10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="V10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="20" t="s">
+      <c r="X10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AF10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AH10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AH10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AJ10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AL10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -20685,6 +20715,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AE9:AF9"/>
@@ -20693,36 +20753,6 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21662,234 +21692,234 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="20" t="s">
+      <c r="T9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AF9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AL9" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="N10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="V10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="20" t="s">
+      <c r="X10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AF10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AH10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AH10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AJ10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AL10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -24705,6 +24735,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AE9:AF9"/>
@@ -24713,36 +24773,6 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24849,234 +24879,234 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="20" t="s">
+      <c r="T9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AF9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AL9" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="N10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="V10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="20" t="s">
+      <c r="X10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AF10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AH10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AH10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AJ10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AL10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -27892,6 +27922,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AE9:AF9"/>
@@ -27900,36 +27960,6 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28036,234 +28066,234 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="20" t="s">
+      <c r="T9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AF9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AL9" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="N10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="V10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="20" t="s">
+      <c r="X10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AF10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AH10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AH10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AJ10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AL10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -31079,6 +31109,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AE9:AF9"/>
@@ -31087,36 +31147,6 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31223,234 +31253,234 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="20" t="s">
+      <c r="T9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AF9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AL9" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="N10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="V10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="20" t="s">
+      <c r="X10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AF10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AH10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AH10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AJ10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AL10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -34266,6 +34296,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AE9:AF9"/>
@@ -34274,36 +34334,6 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34410,234 +34440,234 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="20" t="s">
+      <c r="T9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AF9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AL9" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="N10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="V10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="20" t="s">
+      <c r="X10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AF10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AH10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AH10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AJ10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AL10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -37453,6 +37483,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AE9:AF9"/>
@@ -37461,36 +37521,6 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37597,234 +37627,234 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="20" t="s">
+      <c r="T9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="20" t="s">
+      <c r="V9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="20" t="s">
+      <c r="X9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="20" t="s">
+      <c r="Z9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="20" t="s">
+      <c r="AB9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AD9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AF9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="20" t="s">
+      <c r="AH9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AJ9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK9" s="20" t="s">
+      <c r="AJ9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="20" t="s">
+      <c r="AL9" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="20" t="s">
+      <c r="N10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="20" t="s">
+      <c r="P10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="R10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="20" t="s">
+      <c r="T10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="V10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="20" t="s">
+      <c r="X10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AB10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AD10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AF10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AH10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI10" s="20" t="s">
+      <c r="AH10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK10" s="20" t="s">
+      <c r="AJ10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="20" t="s">
+      <c r="AL10" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -40640,6 +40670,36 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AE9:AF9"/>
@@ -40648,36 +40708,6 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40688,10 +40718,10 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -40701,12 +40731,12 @@
     <col min="3" max="20" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>159</v>
       </c>
@@ -40714,7 +40744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>160</v>
       </c>
@@ -40722,8 +40752,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -40731,7 +40761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -40739,7 +40769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -40747,12 +40777,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>148</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -40810,11 +40840,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -40872,69 +40902,69 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="T11" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>97</v>
       </c>
@@ -40996,7 +41026,7 @@
         <v>1437695</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>99</v>
       </c>
@@ -41058,7 +41088,7 @@
         <v>270193</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>101</v>
       </c>
@@ -41120,7 +41150,7 @@
         <v>29076</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>103</v>
       </c>
@@ -41182,7 +41212,7 @@
         <v>36244</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>105</v>
       </c>
@@ -41244,7 +41274,7 @@
         <v>42506</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>107</v>
       </c>
@@ -41306,7 +41336,7 @@
         <v>61040</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>109</v>
       </c>
@@ -41368,7 +41398,7 @@
         <v>34656</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
@@ -41430,7 +41460,7 @@
         <v>37826</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>113</v>
       </c>
@@ -41492,7 +41522,7 @@
         <v>79208</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>115</v>
       </c>
@@ -41554,7 +41584,7 @@
         <v>50876</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>117</v>
       </c>
@@ -41616,7 +41646,7 @@
         <v>46465</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>119</v>
       </c>
@@ -41678,7 +41708,7 @@
         <v>24067</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>121</v>
       </c>
@@ -41740,7 +41770,7 @@
         <v>89060</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>123</v>
       </c>
@@ -41802,7 +41832,7 @@
         <v>71020</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>125</v>
       </c>
@@ -41864,7 +41894,7 @@
         <v>42107</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>127</v>
       </c>
@@ -41926,7 +41956,7 @@
         <v>72482</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>129</v>
       </c>
@@ -41988,7 +42018,7 @@
         <v>64178</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>131</v>
       </c>
@@ -42050,7 +42080,7 @@
         <v>17021</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>133</v>
       </c>
@@ -42112,7 +42142,7 @@
         <v>148210</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>135</v>
       </c>
@@ -42174,7 +42204,7 @@
         <v>30689</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>137</v>
       </c>
@@ -42236,7 +42266,7 @@
         <v>52845</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>139</v>
       </c>
@@ -42298,7 +42328,7 @@
         <v>108297</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>141</v>
       </c>
@@ -42360,38 +42390,38 @@
         <v>7531</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="21"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="21"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
@@ -42413,8 +42443,8 @@
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -42438,49 +42468,49 @@
       <c r="B43" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I43" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="K43" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="L43" s="23" t="s">
+      <c r="L43" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="M43" s="23" t="s">
+      <c r="M43" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="N43" s="23" t="s">
+      <c r="N43" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="O43" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="P43" s="23" t="s">
+      <c r="P43" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="Q43" s="23" t="s">
+      <c r="Q43" s="19" t="s">
         <v>89</v>
       </c>
     </row>
@@ -42501,7 +42531,7 @@
         <v>623287</v>
       </c>
       <c r="F44" s="9">
-        <f>F12+G12</f>
+        <f t="shared" ref="F44:F66" si="0">F12+G12</f>
         <v>249942</v>
       </c>
       <c r="G44" s="9">
@@ -42511,7 +42541,7 @@
         <v>304233</v>
       </c>
       <c r="I44" s="9">
-        <f>J12+K12+L12</f>
+        <f t="shared" ref="I44:I66" si="1">J12+K12+L12</f>
         <v>509649</v>
       </c>
       <c r="J44" s="9">
@@ -42556,7 +42586,7 @@
         <v>55570</v>
       </c>
       <c r="F45" s="8">
-        <f>F13+G13</f>
+        <f t="shared" si="0"/>
         <v>34231</v>
       </c>
       <c r="G45" s="8">
@@ -42566,7 +42596,7 @@
         <v>90037</v>
       </c>
       <c r="I45" s="8">
-        <f>J13+K13+L13</f>
+        <f t="shared" si="1"/>
         <v>73051</v>
       </c>
       <c r="J45" s="8">
@@ -42611,7 +42641,7 @@
         <v>20096</v>
       </c>
       <c r="F46" s="9">
-        <f>F14+G14</f>
+        <f t="shared" si="0"/>
         <v>12906</v>
       </c>
       <c r="G46" s="9">
@@ -42621,7 +42651,7 @@
         <v>5887</v>
       </c>
       <c r="I46" s="9">
-        <f>J14+K14+L14</f>
+        <f t="shared" si="1"/>
         <v>10768</v>
       </c>
       <c r="J46" s="9">
@@ -42666,7 +42696,7 @@
         <v>21521</v>
       </c>
       <c r="F47" s="8">
-        <f>F15+G15</f>
+        <f t="shared" si="0"/>
         <v>9139</v>
       </c>
       <c r="G47" s="8">
@@ -42676,7 +42706,7 @@
         <v>8528</v>
       </c>
       <c r="I47" s="8">
-        <f>J15+K15+L15</f>
+        <f t="shared" si="1"/>
         <v>31426</v>
       </c>
       <c r="J47" s="8">
@@ -42721,7 +42751,7 @@
         <v>15976</v>
       </c>
       <c r="F48" s="9">
-        <f>F16+G16</f>
+        <f t="shared" si="0"/>
         <v>4362</v>
       </c>
       <c r="G48" s="9">
@@ -42731,7 +42761,7 @@
         <v>9927</v>
       </c>
       <c r="I48" s="9">
-        <f>J16+K16+L16</f>
+        <f t="shared" si="1"/>
         <v>32078</v>
       </c>
       <c r="J48" s="9">
@@ -42776,7 +42806,7 @@
         <v>23962</v>
       </c>
       <c r="F49" s="8">
-        <f>F17+G17</f>
+        <f t="shared" si="0"/>
         <v>7349</v>
       </c>
       <c r="G49" s="8">
@@ -42786,7 +42816,7 @@
         <v>15227</v>
       </c>
       <c r="I49" s="8">
-        <f>J17+K17+L17</f>
+        <f t="shared" si="1"/>
         <v>35238</v>
       </c>
       <c r="J49" s="8">
@@ -42831,7 +42861,7 @@
         <v>21886</v>
       </c>
       <c r="F50" s="9">
-        <f>F18+G18</f>
+        <f t="shared" si="0"/>
         <v>4070</v>
       </c>
       <c r="G50" s="9">
@@ -42841,7 +42871,7 @@
         <v>6749</v>
       </c>
       <c r="I50" s="9">
-        <f>J18+K18+L18</f>
+        <f t="shared" si="1"/>
         <v>10441</v>
       </c>
       <c r="J50" s="9">
@@ -42886,7 +42916,7 @@
         <v>18318</v>
       </c>
       <c r="F51" s="8">
-        <f>F19+G19</f>
+        <f t="shared" si="0"/>
         <v>4594</v>
       </c>
       <c r="G51" s="8">
@@ -42896,7 +42926,7 @@
         <v>7235</v>
       </c>
       <c r="I51" s="8">
-        <f>J19+K19+L19</f>
+        <f t="shared" si="1"/>
         <v>18597</v>
       </c>
       <c r="J51" s="8">
@@ -42941,7 +42971,7 @@
         <v>41815</v>
       </c>
       <c r="F52" s="9">
-        <f>F20+G20</f>
+        <f t="shared" si="0"/>
         <v>30002</v>
       </c>
       <c r="G52" s="9">
@@ -42951,7 +42981,7 @@
         <v>21253</v>
       </c>
       <c r="I52" s="9">
-        <f>J20+K20+L20</f>
+        <f t="shared" si="1"/>
         <v>28798</v>
       </c>
       <c r="J52" s="9">
@@ -42996,7 +43026,7 @@
         <v>21846</v>
       </c>
       <c r="F53" s="8">
-        <f>F21+G21</f>
+        <f t="shared" si="0"/>
         <v>11141</v>
       </c>
       <c r="G53" s="8">
@@ -43006,7 +43036,7 @@
         <v>12202</v>
       </c>
       <c r="I53" s="8">
-        <f>J21+K21+L21</f>
+        <f t="shared" si="1"/>
         <v>16498</v>
       </c>
       <c r="J53" s="8">
@@ -43051,7 +43081,7 @@
         <v>23961</v>
       </c>
       <c r="F54" s="9">
-        <f>F22+G22</f>
+        <f t="shared" si="0"/>
         <v>9574</v>
       </c>
       <c r="G54" s="9">
@@ -43061,7 +43091,7 @@
         <v>12057</v>
       </c>
       <c r="I54" s="9">
-        <f>J22+K22+L22</f>
+        <f t="shared" si="1"/>
         <v>20506</v>
       </c>
       <c r="J54" s="9">
@@ -43106,7 +43136,7 @@
         <v>10972</v>
       </c>
       <c r="F55" s="8">
-        <f>F23+G23</f>
+        <f t="shared" si="0"/>
         <v>2094</v>
       </c>
       <c r="G55" s="8">
@@ -43116,7 +43146,7 @@
         <v>3136</v>
       </c>
       <c r="I55" s="8">
-        <f>J23+K23+L23</f>
+        <f t="shared" si="1"/>
         <v>11256</v>
       </c>
       <c r="J55" s="8">
@@ -43161,7 +43191,7 @@
         <v>59914</v>
       </c>
       <c r="F56" s="9">
-        <f>F24+G24</f>
+        <f t="shared" si="0"/>
         <v>24806</v>
       </c>
       <c r="G56" s="9">
@@ -43171,7 +43201,7 @@
         <v>15543</v>
       </c>
       <c r="I56" s="9">
-        <f>J24+K24+L24</f>
+        <f t="shared" si="1"/>
         <v>27406</v>
       </c>
       <c r="J56" s="9">
@@ -43216,7 +43246,7 @@
         <v>74375</v>
       </c>
       <c r="F57" s="8">
-        <f>F25+G25</f>
+        <f t="shared" si="0"/>
         <v>6158</v>
       </c>
       <c r="G57" s="8">
@@ -43226,7 +43256,7 @@
         <v>10251</v>
       </c>
       <c r="I57" s="8">
-        <f>J25+K25+L25</f>
+        <f t="shared" si="1"/>
         <v>18349</v>
       </c>
       <c r="J57" s="8">
@@ -43271,7 +43301,7 @@
         <v>20581</v>
       </c>
       <c r="F58" s="9">
-        <f>F26+G26</f>
+        <f t="shared" si="0"/>
         <v>6431</v>
       </c>
       <c r="G58" s="9">
@@ -43281,7 +43311,7 @@
         <v>8862</v>
       </c>
       <c r="I58" s="9">
-        <f>J26+K26+L26</f>
+        <f t="shared" si="1"/>
         <v>7765</v>
       </c>
       <c r="J58" s="9">
@@ -43326,7 +43356,7 @@
         <v>32410</v>
       </c>
       <c r="F59" s="8">
-        <f>F27+G27</f>
+        <f t="shared" si="0"/>
         <v>8268</v>
       </c>
       <c r="G59" s="8">
@@ -43336,7 +43366,7 @@
         <v>11252</v>
       </c>
       <c r="I59" s="8">
-        <f>J27+K27+L27</f>
+        <f t="shared" si="1"/>
         <v>16513</v>
       </c>
       <c r="J59" s="8">
@@ -43381,7 +43411,7 @@
         <v>25298</v>
       </c>
       <c r="F60" s="9">
-        <f>F28+G28</f>
+        <f t="shared" si="0"/>
         <v>9441</v>
       </c>
       <c r="G60" s="9">
@@ -43391,7 +43421,7 @@
         <v>7582</v>
       </c>
       <c r="I60" s="9">
-        <f>J28+K28+L28</f>
+        <f t="shared" si="1"/>
         <v>9688</v>
       </c>
       <c r="J60" s="9">
@@ -43436,7 +43466,7 @@
         <v>7843</v>
       </c>
       <c r="F61" s="8">
-        <f>F29+G29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G61" s="8">
@@ -43446,7 +43476,7 @@
         <v>6547</v>
       </c>
       <c r="I61" s="8">
-        <f>J29+K29+L29</f>
+        <f t="shared" si="1"/>
         <v>2579</v>
       </c>
       <c r="J61" s="8">
@@ -43491,7 +43521,7 @@
         <v>51305</v>
       </c>
       <c r="F62" s="9">
-        <f>F30+G30</f>
+        <f t="shared" si="0"/>
         <v>37181</v>
       </c>
       <c r="G62" s="9">
@@ -43501,7 +43531,7 @@
         <v>27075</v>
       </c>
       <c r="I62" s="9">
-        <f>J30+K30+L30</f>
+        <f t="shared" si="1"/>
         <v>68856</v>
       </c>
       <c r="J62" s="9">
@@ -43546,7 +43576,7 @@
         <v>15520</v>
       </c>
       <c r="F63" s="8">
-        <f>F31+G31</f>
+        <f t="shared" si="0"/>
         <v>3819</v>
       </c>
       <c r="G63" s="8">
@@ -43556,7 +43586,7 @@
         <v>4535</v>
       </c>
       <c r="I63" s="8">
-        <f>J31+K31+L31</f>
+        <f t="shared" si="1"/>
         <v>28653</v>
       </c>
       <c r="J63" s="8">
@@ -43601,7 +43631,7 @@
         <v>17527</v>
       </c>
       <c r="F64" s="9">
-        <f>F32+G32</f>
+        <f t="shared" si="0"/>
         <v>3297</v>
       </c>
       <c r="G64" s="9">
@@ -43611,7 +43641,7 @@
         <v>5805</v>
       </c>
       <c r="I64" s="9">
-        <f>J32+K32+L32</f>
+        <f t="shared" si="1"/>
         <v>6135</v>
       </c>
       <c r="J64" s="9">
@@ -43656,7 +43686,7 @@
         <v>31524</v>
       </c>
       <c r="F65" s="8">
-        <f>F33+G33</f>
+        <f t="shared" si="0"/>
         <v>4238</v>
       </c>
       <c r="G65" s="8">
@@ -43666,7 +43696,7 @@
         <v>11726</v>
       </c>
       <c r="I65" s="8">
-        <f>J33+K33+L33</f>
+        <f t="shared" si="1"/>
         <v>22526</v>
       </c>
       <c r="J65" s="8">
@@ -43711,7 +43741,7 @@
         <v>1999</v>
       </c>
       <c r="F66" s="9">
-        <f>F34+G34</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="G66" s="9">
@@ -43721,7 +43751,7 @@
         <v>210</v>
       </c>
       <c r="I66" s="9">
-        <f>J34+K34+L34</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="J66" s="9">
@@ -43769,8 +43799,8 @@
       <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -43794,49 +43824,49 @@
       <c r="B70" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E70" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="H70" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="I70" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="J70" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="K70" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="L70" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="M70" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="N70" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="O70" s="23" t="s">
+      <c r="E70" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G70" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="P70" s="23" t="s">
+      <c r="H70" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="M70" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="N70" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="O70" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="P70" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="Q70" s="23" t="s">
+      <c r="Q70" s="19" t="s">
         <v>89</v>
       </c>
     </row>
@@ -43847,64 +43877,64 @@
       <c r="B71" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="24">
-        <f>C44/1000</f>
+      <c r="C71" s="20">
+        <f t="shared" ref="C71:Q71" si="2">C44/1000</f>
         <v>36.823999999999998</v>
       </c>
-      <c r="D71" s="24">
-        <f>D44/1000</f>
+      <c r="D71" s="20">
+        <f t="shared" si="2"/>
         <v>3884.8780000000002</v>
       </c>
-      <c r="E71" s="24">
-        <f>E44/1000</f>
+      <c r="E71" s="20">
+        <f t="shared" si="2"/>
         <v>623.28700000000003</v>
       </c>
-      <c r="F71" s="24">
-        <f>F44/1000</f>
+      <c r="F71" s="20">
+        <f t="shared" si="2"/>
         <v>249.94200000000001</v>
       </c>
-      <c r="G71" s="24">
-        <f>G44/1000</f>
+      <c r="G71" s="20">
+        <f t="shared" si="2"/>
         <v>91.828999999999994</v>
       </c>
-      <c r="H71" s="24">
-        <f>H44/1000</f>
+      <c r="H71" s="20">
+        <f t="shared" si="2"/>
         <v>304.233</v>
       </c>
-      <c r="I71" s="24">
-        <f>I44/1000</f>
+      <c r="I71" s="20">
+        <f t="shared" si="2"/>
         <v>509.649</v>
       </c>
-      <c r="J71" s="24">
-        <f>J44/1000</f>
+      <c r="J71" s="20">
+        <f t="shared" si="2"/>
         <v>140.41300000000001</v>
       </c>
-      <c r="K71" s="24">
-        <f>K44/1000</f>
+      <c r="K71" s="20">
+        <f t="shared" si="2"/>
         <v>579.33600000000001</v>
       </c>
-      <c r="L71" s="24">
-        <f>L44/1000</f>
+      <c r="L71" s="20">
+        <f t="shared" si="2"/>
         <v>485.76499999999999</v>
       </c>
-      <c r="M71" s="24">
-        <f>M44/1000</f>
+      <c r="M71" s="20">
+        <f t="shared" si="2"/>
         <v>325.57900000000001</v>
       </c>
-      <c r="N71" s="24">
-        <f>N44/1000</f>
+      <c r="N71" s="20">
+        <f t="shared" si="2"/>
         <v>384.37799999999999</v>
       </c>
-      <c r="O71" s="24">
-        <f>O44/1000</f>
+      <c r="O71" s="20">
+        <f t="shared" si="2"/>
         <v>190.46700000000001</v>
       </c>
-      <c r="P71" s="24">
-        <f>P44/1000</f>
+      <c r="P71" s="20">
+        <f t="shared" si="2"/>
         <v>192.55699999999999</v>
       </c>
-      <c r="Q71" s="24">
-        <f>Q44/1000</f>
+      <c r="Q71" s="20">
+        <f t="shared" si="2"/>
         <v>1437.6949999999999</v>
       </c>
     </row>
@@ -43915,64 +43945,64 @@
       <c r="B72" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="24">
-        <f>C45/1000</f>
+      <c r="C72" s="20">
+        <f t="shared" ref="C72:Q72" si="3">C45/1000</f>
         <v>2.65</v>
       </c>
-      <c r="D72" s="24">
-        <f>D45/1000</f>
+      <c r="D72" s="20">
+        <f t="shared" si="3"/>
         <v>584.39599999999996</v>
       </c>
-      <c r="E72" s="24">
-        <f>E45/1000</f>
+      <c r="E72" s="20">
+        <f t="shared" si="3"/>
         <v>55.57</v>
       </c>
-      <c r="F72" s="24">
-        <f>F45/1000</f>
+      <c r="F72" s="20">
+        <f t="shared" si="3"/>
         <v>34.231000000000002</v>
       </c>
-      <c r="G72" s="24">
-        <f>G45/1000</f>
+      <c r="G72" s="20">
+        <f t="shared" si="3"/>
         <v>2.9780000000000002</v>
       </c>
-      <c r="H72" s="24">
-        <f>H45/1000</f>
+      <c r="H72" s="20">
+        <f t="shared" si="3"/>
         <v>90.037000000000006</v>
       </c>
-      <c r="I72" s="24">
-        <f>I45/1000</f>
+      <c r="I72" s="20">
+        <f t="shared" si="3"/>
         <v>73.051000000000002</v>
       </c>
-      <c r="J72" s="24">
-        <f>J45/1000</f>
+      <c r="J72" s="20">
+        <f t="shared" si="3"/>
         <v>14.122999999999999</v>
       </c>
-      <c r="K72" s="24">
-        <f>K45/1000</f>
+      <c r="K72" s="20">
+        <f t="shared" si="3"/>
         <v>52.494999999999997</v>
       </c>
-      <c r="L72" s="24">
-        <f>L45/1000</f>
+      <c r="L72" s="20">
+        <f t="shared" si="3"/>
         <v>116.61499999999999</v>
       </c>
-      <c r="M72" s="24">
-        <f>M45/1000</f>
+      <c r="M72" s="20">
+        <f t="shared" si="3"/>
         <v>45.212000000000003</v>
       </c>
-      <c r="N72" s="24">
-        <f>N45/1000</f>
+      <c r="N72" s="20">
+        <f t="shared" si="3"/>
         <v>73.924000000000007</v>
       </c>
-      <c r="O72" s="24">
-        <f>O45/1000</f>
+      <c r="O72" s="20">
+        <f t="shared" si="3"/>
         <v>26.16</v>
       </c>
-      <c r="P72" s="24">
-        <f>P45/1000</f>
+      <c r="P72" s="20">
+        <f t="shared" si="3"/>
         <v>49.676000000000002</v>
       </c>
-      <c r="Q72" s="24">
-        <f>Q45/1000</f>
+      <c r="Q72" s="20">
+        <f t="shared" si="3"/>
         <v>270.19299999999998</v>
       </c>
     </row>
@@ -43983,64 +44013,64 @@
       <c r="B73" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C73" s="24">
-        <f>C46/1000</f>
+      <c r="C73" s="20">
+        <f t="shared" ref="C73:Q73" si="4">C46/1000</f>
         <v>0.77600000000000002</v>
       </c>
-      <c r="D73" s="24">
-        <f>D46/1000</f>
+      <c r="D73" s="20">
+        <f t="shared" si="4"/>
         <v>114.877</v>
       </c>
-      <c r="E73" s="24">
-        <f>E46/1000</f>
+      <c r="E73" s="20">
+        <f t="shared" si="4"/>
         <v>20.096</v>
       </c>
-      <c r="F73" s="24">
-        <f>F46/1000</f>
+      <c r="F73" s="20">
+        <f t="shared" si="4"/>
         <v>12.906000000000001</v>
       </c>
-      <c r="G73" s="24">
-        <f>G46/1000</f>
+      <c r="G73" s="20">
+        <f t="shared" si="4"/>
         <v>4.6950000000000003</v>
       </c>
-      <c r="H73" s="24">
-        <f>H46/1000</f>
+      <c r="H73" s="20">
+        <f t="shared" si="4"/>
         <v>5.8869999999999996</v>
       </c>
-      <c r="I73" s="24">
-        <f>I46/1000</f>
+      <c r="I73" s="20">
+        <f t="shared" si="4"/>
         <v>10.768000000000001</v>
       </c>
-      <c r="J73" s="24">
-        <f>J46/1000</f>
+      <c r="J73" s="20">
+        <f t="shared" si="4"/>
         <v>4.3789999999999996</v>
       </c>
-      <c r="K73" s="24">
-        <f>K46/1000</f>
+      <c r="K73" s="20">
+        <f t="shared" si="4"/>
         <v>29.161999999999999</v>
       </c>
-      <c r="L73" s="24">
-        <f>L46/1000</f>
+      <c r="L73" s="20">
+        <f t="shared" si="4"/>
         <v>5.5129999999999999</v>
       </c>
-      <c r="M73" s="24">
-        <f>M46/1000</f>
+      <c r="M73" s="20">
+        <f t="shared" si="4"/>
         <v>10.4</v>
       </c>
-      <c r="N73" s="24">
-        <f>N46/1000</f>
+      <c r="N73" s="20">
+        <f t="shared" si="4"/>
         <v>6.093</v>
       </c>
-      <c r="O73" s="24">
-        <f>O46/1000</f>
+      <c r="O73" s="20">
+        <f t="shared" si="4"/>
         <v>4.3710000000000004</v>
       </c>
-      <c r="P73" s="24">
-        <f>P46/1000</f>
+      <c r="P73" s="20">
+        <f t="shared" si="4"/>
         <v>3.7989999999999999</v>
       </c>
-      <c r="Q73" s="24">
-        <f>Q46/1000</f>
+      <c r="Q73" s="20">
+        <f t="shared" si="4"/>
         <v>29.076000000000001</v>
       </c>
     </row>
@@ -44051,64 +44081,64 @@
       <c r="B74" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="24">
-        <f>C47/1000</f>
+      <c r="C74" s="20">
+        <f t="shared" ref="C74:Q74" si="5">C47/1000</f>
         <v>0.85099999999999998</v>
       </c>
-      <c r="D74" s="24">
-        <f>D47/1000</f>
+      <c r="D74" s="20">
+        <f t="shared" si="5"/>
         <v>151.965</v>
       </c>
-      <c r="E74" s="24">
-        <f>E47/1000</f>
+      <c r="E74" s="20">
+        <f t="shared" si="5"/>
         <v>21.521000000000001</v>
       </c>
-      <c r="F74" s="24">
-        <f>F47/1000</f>
+      <c r="F74" s="20">
+        <f t="shared" si="5"/>
         <v>9.1389999999999993</v>
       </c>
-      <c r="G74" s="24">
-        <f>G47/1000</f>
+      <c r="G74" s="20">
+        <f t="shared" si="5"/>
         <v>2.0430000000000001</v>
       </c>
-      <c r="H74" s="24">
-        <f>H47/1000</f>
+      <c r="H74" s="20">
+        <f t="shared" si="5"/>
         <v>8.5280000000000005</v>
       </c>
-      <c r="I74" s="24">
-        <f>I47/1000</f>
+      <c r="I74" s="20">
+        <f t="shared" si="5"/>
         <v>31.425999999999998</v>
       </c>
-      <c r="J74" s="24">
-        <f>J47/1000</f>
+      <c r="J74" s="20">
+        <f t="shared" si="5"/>
         <v>6.5869999999999997</v>
       </c>
-      <c r="K74" s="24">
-        <f>K47/1000</f>
+      <c r="K74" s="20">
+        <f t="shared" si="5"/>
         <v>29.966000000000001</v>
       </c>
-      <c r="L74" s="24">
-        <f>L47/1000</f>
+      <c r="L74" s="20">
+        <f t="shared" si="5"/>
         <v>8.1709999999999994</v>
       </c>
-      <c r="M74" s="24">
-        <f>M47/1000</f>
+      <c r="M74" s="20">
+        <f t="shared" si="5"/>
         <v>16.710999999999999</v>
       </c>
-      <c r="N74" s="24">
-        <f>N47/1000</f>
+      <c r="N74" s="20">
+        <f t="shared" si="5"/>
         <v>9.6690000000000005</v>
       </c>
-      <c r="O74" s="24">
-        <f>O47/1000</f>
+      <c r="O74" s="20">
+        <f t="shared" si="5"/>
         <v>8.2040000000000006</v>
       </c>
-      <c r="P74" s="24">
-        <f>P47/1000</f>
+      <c r="P74" s="20">
+        <f t="shared" si="5"/>
         <v>3.16</v>
       </c>
-      <c r="Q74" s="24">
-        <f>Q47/1000</f>
+      <c r="Q74" s="20">
+        <f t="shared" si="5"/>
         <v>36.244</v>
       </c>
     </row>
@@ -44119,64 +44149,64 @@
       <c r="B75" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C75" s="24">
-        <f>C48/1000</f>
+      <c r="C75" s="20">
+        <f t="shared" ref="C75:Q75" si="6">C48/1000</f>
         <v>0.61299999999999999</v>
       </c>
-      <c r="D75" s="24">
-        <f>D48/1000</f>
+      <c r="D75" s="20">
+        <f t="shared" si="6"/>
         <v>142.452</v>
       </c>
-      <c r="E75" s="24">
-        <f>E48/1000</f>
+      <c r="E75" s="20">
+        <f t="shared" si="6"/>
         <v>15.976000000000001</v>
       </c>
-      <c r="F75" s="24">
-        <f>F48/1000</f>
+      <c r="F75" s="20">
+        <f t="shared" si="6"/>
         <v>4.3620000000000001</v>
       </c>
-      <c r="G75" s="24">
-        <f>G48/1000</f>
+      <c r="G75" s="20">
+        <f t="shared" si="6"/>
         <v>1.6970000000000001</v>
       </c>
-      <c r="H75" s="24">
-        <f>H48/1000</f>
+      <c r="H75" s="20">
+        <f t="shared" si="6"/>
         <v>9.9269999999999996</v>
       </c>
-      <c r="I75" s="24">
-        <f>I48/1000</f>
+      <c r="I75" s="20">
+        <f t="shared" si="6"/>
         <v>32.078000000000003</v>
       </c>
-      <c r="J75" s="24">
-        <f>J48/1000</f>
+      <c r="J75" s="20">
+        <f t="shared" si="6"/>
         <v>6.4859999999999998</v>
       </c>
-      <c r="K75" s="24">
-        <f>K48/1000</f>
+      <c r="K75" s="20">
+        <f t="shared" si="6"/>
         <v>21.477</v>
       </c>
-      <c r="L75" s="24">
-        <f>L48/1000</f>
+      <c r="L75" s="20">
+        <f t="shared" si="6"/>
         <v>17.516999999999999</v>
       </c>
-      <c r="M75" s="24">
-        <f>M48/1000</f>
+      <c r="M75" s="20">
+        <f t="shared" si="6"/>
         <v>9.8520000000000003</v>
       </c>
-      <c r="N75" s="24">
-        <f>N48/1000</f>
+      <c r="N75" s="20">
+        <f t="shared" si="6"/>
         <v>18.878</v>
       </c>
-      <c r="O75" s="24">
-        <f>O48/1000</f>
+      <c r="O75" s="20">
+        <f t="shared" si="6"/>
         <v>4.202</v>
       </c>
-      <c r="P75" s="24">
-        <f>P48/1000</f>
+      <c r="P75" s="20">
+        <f t="shared" si="6"/>
         <v>6.1840000000000002</v>
       </c>
-      <c r="Q75" s="24">
-        <f>Q48/1000</f>
+      <c r="Q75" s="20">
+        <f t="shared" si="6"/>
         <v>42.506</v>
       </c>
     </row>
@@ -44187,64 +44217,64 @@
       <c r="B76" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C76" s="24">
-        <f>C49/1000</f>
+      <c r="C76" s="20">
+        <f t="shared" ref="C76:Q76" si="7">C49/1000</f>
         <v>1.091</v>
       </c>
-      <c r="D76" s="24">
-        <f>D49/1000</f>
+      <c r="D76" s="20">
+        <f t="shared" si="7"/>
         <v>194.215</v>
       </c>
-      <c r="E76" s="24">
-        <f>E49/1000</f>
+      <c r="E76" s="20">
+        <f t="shared" si="7"/>
         <v>23.962</v>
       </c>
-      <c r="F76" s="24">
-        <f>F49/1000</f>
+      <c r="F76" s="20">
+        <f t="shared" si="7"/>
         <v>7.3490000000000002</v>
       </c>
-      <c r="G76" s="24">
-        <f>G49/1000</f>
+      <c r="G76" s="20">
+        <f t="shared" si="7"/>
         <v>3.8879999999999999</v>
       </c>
-      <c r="H76" s="24">
-        <f>H49/1000</f>
+      <c r="H76" s="20">
+        <f t="shared" si="7"/>
         <v>15.227</v>
       </c>
-      <c r="I76" s="24">
-        <f>I49/1000</f>
+      <c r="I76" s="20">
+        <f t="shared" si="7"/>
         <v>35.238</v>
       </c>
-      <c r="J76" s="24">
-        <f>J49/1000</f>
+      <c r="J76" s="20">
+        <f t="shared" si="7"/>
         <v>7.3689999999999998</v>
       </c>
-      <c r="K76" s="24">
-        <f>K49/1000</f>
+      <c r="K76" s="20">
+        <f t="shared" si="7"/>
         <v>29.271000000000001</v>
       </c>
-      <c r="L76" s="24">
-        <f>L49/1000</f>
+      <c r="L76" s="20">
+        <f t="shared" si="7"/>
         <v>24.459</v>
       </c>
-      <c r="M76" s="24">
-        <f>M49/1000</f>
+      <c r="M76" s="20">
+        <f t="shared" si="7"/>
         <v>21.233000000000001</v>
       </c>
-      <c r="N76" s="24">
-        <f>N49/1000</f>
+      <c r="N76" s="20">
+        <f t="shared" si="7"/>
         <v>13.884</v>
       </c>
-      <c r="O76" s="24">
-        <f>O49/1000</f>
+      <c r="O76" s="20">
+        <f t="shared" si="7"/>
         <v>10.444000000000001</v>
       </c>
-      <c r="P76" s="24">
-        <f>P49/1000</f>
+      <c r="P76" s="20">
+        <f t="shared" si="7"/>
         <v>10.468999999999999</v>
       </c>
-      <c r="Q76" s="24">
-        <f>Q49/1000</f>
+      <c r="Q76" s="20">
+        <f t="shared" si="7"/>
         <v>61.04</v>
       </c>
     </row>
@@ -44255,64 +44285,64 @@
       <c r="B77" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C77" s="24">
-        <f>C50/1000</f>
+      <c r="C77" s="20">
+        <f t="shared" ref="C77:Q77" si="8">C50/1000</f>
         <v>0.76100000000000001</v>
       </c>
-      <c r="D77" s="24">
-        <f>D50/1000</f>
+      <c r="D77" s="20">
+        <f t="shared" si="8"/>
         <v>100.986</v>
       </c>
-      <c r="E77" s="24">
-        <f>E50/1000</f>
+      <c r="E77" s="20">
+        <f t="shared" si="8"/>
         <v>21.885999999999999</v>
       </c>
-      <c r="F77" s="24">
-        <f>F50/1000</f>
+      <c r="F77" s="20">
+        <f t="shared" si="8"/>
         <v>4.07</v>
       </c>
-      <c r="G77" s="24">
-        <f>G50/1000</f>
+      <c r="G77" s="20">
+        <f t="shared" si="8"/>
         <v>2.3860000000000001</v>
       </c>
-      <c r="H77" s="24">
-        <f>H50/1000</f>
+      <c r="H77" s="20">
+        <f t="shared" si="8"/>
         <v>6.7489999999999997</v>
       </c>
-      <c r="I77" s="24">
-        <f>I50/1000</f>
+      <c r="I77" s="20">
+        <f t="shared" si="8"/>
         <v>10.441000000000001</v>
       </c>
-      <c r="J77" s="24">
-        <f>J50/1000</f>
+      <c r="J77" s="20">
+        <f t="shared" si="8"/>
         <v>2.7959999999999998</v>
       </c>
-      <c r="K77" s="24">
-        <f>K50/1000</f>
+      <c r="K77" s="20">
+        <f t="shared" si="8"/>
         <v>15.502000000000001</v>
       </c>
-      <c r="L77" s="24">
-        <f>L50/1000</f>
+      <c r="L77" s="20">
+        <f t="shared" si="8"/>
         <v>11.118</v>
       </c>
-      <c r="M77" s="24">
-        <f>M50/1000</f>
+      <c r="M77" s="20">
+        <f t="shared" si="8"/>
         <v>9.6910000000000007</v>
       </c>
-      <c r="N77" s="24">
-        <f>N50/1000</f>
+      <c r="N77" s="20">
+        <f t="shared" si="8"/>
         <v>11.06</v>
       </c>
-      <c r="O77" s="24">
-        <f>O50/1000</f>
+      <c r="O77" s="20">
+        <f t="shared" si="8"/>
         <v>5.2869999999999999</v>
       </c>
-      <c r="P77" s="24">
-        <f>P50/1000</f>
+      <c r="P77" s="20">
+        <f t="shared" si="8"/>
         <v>3.1960000000000002</v>
       </c>
-      <c r="Q77" s="24">
-        <f>Q50/1000</f>
+      <c r="Q77" s="20">
+        <f t="shared" si="8"/>
         <v>34.655999999999999</v>
       </c>
     </row>
@@ -44323,64 +44353,64 @@
       <c r="B78" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="24">
-        <f>C51/1000</f>
+      <c r="C78" s="20">
+        <f t="shared" ref="C78:Q78" si="9">C51/1000</f>
         <v>1.476</v>
       </c>
-      <c r="D78" s="24">
-        <f>D51/1000</f>
+      <c r="D78" s="20">
+        <f t="shared" si="9"/>
         <v>126.032</v>
       </c>
-      <c r="E78" s="24">
-        <f>E51/1000</f>
+      <c r="E78" s="20">
+        <f t="shared" si="9"/>
         <v>18.318000000000001</v>
       </c>
-      <c r="F78" s="24">
-        <f>F51/1000</f>
+      <c r="F78" s="20">
+        <f t="shared" si="9"/>
         <v>4.5940000000000003</v>
       </c>
-      <c r="G78" s="24">
-        <f>G51/1000</f>
+      <c r="G78" s="20">
+        <f t="shared" si="9"/>
         <v>4.181</v>
       </c>
-      <c r="H78" s="24">
-        <f>H51/1000</f>
+      <c r="H78" s="20">
+        <f t="shared" si="9"/>
         <v>7.2350000000000003</v>
       </c>
-      <c r="I78" s="24">
-        <f>I51/1000</f>
+      <c r="I78" s="20">
+        <f t="shared" si="9"/>
         <v>18.597000000000001</v>
       </c>
-      <c r="J78" s="24">
-        <f>J51/1000</f>
+      <c r="J78" s="20">
+        <f t="shared" si="9"/>
         <v>5.0910000000000002</v>
       </c>
-      <c r="K78" s="24">
-        <f>K51/1000</f>
+      <c r="K78" s="20">
+        <f t="shared" si="9"/>
         <v>25.61</v>
       </c>
-      <c r="L78" s="24">
-        <f>L51/1000</f>
+      <c r="L78" s="20">
+        <f t="shared" si="9"/>
         <v>14.805999999999999</v>
       </c>
-      <c r="M78" s="24">
-        <f>M51/1000</f>
+      <c r="M78" s="20">
+        <f t="shared" si="9"/>
         <v>11.981999999999999</v>
       </c>
-      <c r="N78" s="24">
-        <f>N51/1000</f>
+      <c r="N78" s="20">
+        <f t="shared" si="9"/>
         <v>6.8390000000000004</v>
       </c>
-      <c r="O78" s="24">
-        <f>O51/1000</f>
+      <c r="O78" s="20">
+        <f t="shared" si="9"/>
         <v>8.0150000000000006</v>
       </c>
-      <c r="P78" s="24">
-        <f>P51/1000</f>
+      <c r="P78" s="20">
+        <f t="shared" si="9"/>
         <v>3.68</v>
       </c>
-      <c r="Q78" s="24">
-        <f>Q51/1000</f>
+      <c r="Q78" s="20">
+        <f t="shared" si="9"/>
         <v>37.826000000000001</v>
       </c>
     </row>
@@ -44391,64 +44421,64 @@
       <c r="B79" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C79" s="24">
-        <f>C52/1000</f>
+      <c r="C79" s="20">
+        <f t="shared" ref="C79:Q79" si="10">C52/1000</f>
         <v>0</v>
       </c>
-      <c r="D79" s="24">
-        <f>D52/1000</f>
+      <c r="D79" s="20">
+        <f t="shared" si="10"/>
         <v>272.15499999999997</v>
       </c>
-      <c r="E79" s="24">
-        <f>E52/1000</f>
+      <c r="E79" s="20">
+        <f t="shared" si="10"/>
         <v>41.814999999999998</v>
       </c>
-      <c r="F79" s="24">
-        <f>F52/1000</f>
+      <c r="F79" s="20">
+        <f t="shared" si="10"/>
         <v>30.001999999999999</v>
       </c>
-      <c r="G79" s="24">
-        <f>G52/1000</f>
+      <c r="G79" s="20">
+        <f t="shared" si="10"/>
         <v>2.702</v>
       </c>
-      <c r="H79" s="24">
-        <f>H52/1000</f>
+      <c r="H79" s="20">
+        <f t="shared" si="10"/>
         <v>21.253</v>
       </c>
-      <c r="I79" s="24">
-        <f>I52/1000</f>
+      <c r="I79" s="20">
+        <f t="shared" si="10"/>
         <v>28.797999999999998</v>
       </c>
-      <c r="J79" s="24">
-        <f>J52/1000</f>
+      <c r="J79" s="20">
+        <f t="shared" si="10"/>
         <v>19.541</v>
       </c>
-      <c r="K79" s="24">
-        <f>K52/1000</f>
+      <c r="K79" s="20">
+        <f t="shared" si="10"/>
         <v>50.058</v>
       </c>
-      <c r="L79" s="24">
-        <f>L52/1000</f>
+      <c r="L79" s="20">
+        <f t="shared" si="10"/>
         <v>16.111999999999998</v>
       </c>
-      <c r="M79" s="24">
-        <f>M52/1000</f>
+      <c r="M79" s="20">
+        <f t="shared" si="10"/>
         <v>16.786999999999999</v>
       </c>
-      <c r="N79" s="24">
-        <f>N52/1000</f>
+      <c r="N79" s="20">
+        <f t="shared" si="10"/>
         <v>33.896000000000001</v>
       </c>
-      <c r="O79" s="24">
-        <f>O52/1000</f>
+      <c r="O79" s="20">
+        <f t="shared" si="10"/>
         <v>9.3439999999999994</v>
       </c>
-      <c r="P79" s="24">
-        <f>P52/1000</f>
+      <c r="P79" s="20">
+        <f t="shared" si="10"/>
         <v>9.5549999999999997</v>
       </c>
-      <c r="Q79" s="24">
-        <f>Q52/1000</f>
+      <c r="Q79" s="20">
+        <f t="shared" si="10"/>
         <v>79.207999999999998</v>
       </c>
     </row>
@@ -44459,64 +44489,64 @@
       <c r="B80" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C80" s="24">
-        <f>C53/1000</f>
+      <c r="C80" s="20">
+        <f t="shared" ref="C80:Q80" si="11">C53/1000</f>
         <v>5.5010000000000003</v>
       </c>
-      <c r="D80" s="24">
-        <f>D53/1000</f>
+      <c r="D80" s="20">
+        <f t="shared" si="11"/>
         <v>167.86</v>
       </c>
-      <c r="E80" s="24">
-        <f>E53/1000</f>
+      <c r="E80" s="20">
+        <f t="shared" si="11"/>
         <v>21.846</v>
       </c>
-      <c r="F80" s="24">
-        <f>F53/1000</f>
+      <c r="F80" s="20">
+        <f t="shared" si="11"/>
         <v>11.141</v>
       </c>
-      <c r="G80" s="24">
-        <f>G53/1000</f>
+      <c r="G80" s="20">
+        <f t="shared" si="11"/>
         <v>5.87</v>
       </c>
-      <c r="H80" s="24">
-        <f>H53/1000</f>
+      <c r="H80" s="20">
+        <f t="shared" si="11"/>
         <v>12.202</v>
       </c>
-      <c r="I80" s="24">
-        <f>I53/1000</f>
+      <c r="I80" s="20">
+        <f t="shared" si="11"/>
         <v>16.498000000000001</v>
       </c>
-      <c r="J80" s="24">
-        <f>J53/1000</f>
+      <c r="J80" s="20">
+        <f t="shared" si="11"/>
         <v>7.3440000000000003</v>
       </c>
-      <c r="K80" s="24">
-        <f>K53/1000</f>
+      <c r="K80" s="20">
+        <f t="shared" si="11"/>
         <v>39.58</v>
       </c>
-      <c r="L80" s="24">
-        <f>L53/1000</f>
+      <c r="L80" s="20">
+        <f t="shared" si="11"/>
         <v>12.378</v>
       </c>
-      <c r="M80" s="24">
-        <f>M53/1000</f>
+      <c r="M80" s="20">
+        <f t="shared" si="11"/>
         <v>12.032</v>
       </c>
-      <c r="N80" s="24">
-        <f>N53/1000</f>
+      <c r="N80" s="20">
+        <f t="shared" si="11"/>
         <v>19.879000000000001</v>
       </c>
-      <c r="O80" s="24">
-        <f>O53/1000</f>
+      <c r="O80" s="20">
+        <f t="shared" si="11"/>
         <v>9.09</v>
       </c>
-      <c r="P80" s="24">
-        <f>P53/1000</f>
+      <c r="P80" s="20">
+        <f t="shared" si="11"/>
         <v>7.5990000000000002</v>
       </c>
-      <c r="Q80" s="24">
-        <f>Q53/1000</f>
+      <c r="Q80" s="20">
+        <f t="shared" si="11"/>
         <v>50.875999999999998</v>
       </c>
     </row>
@@ -44527,64 +44557,64 @@
       <c r="B81" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C81" s="24">
-        <f>C54/1000</f>
+      <c r="C81" s="20">
+        <f t="shared" ref="C81:Q81" si="12">C54/1000</f>
         <v>1.849</v>
       </c>
-      <c r="D81" s="24">
-        <f>D54/1000</f>
+      <c r="D81" s="20">
+        <f t="shared" si="12"/>
         <v>163.90600000000001</v>
       </c>
-      <c r="E81" s="24">
-        <f>E54/1000</f>
+      <c r="E81" s="20">
+        <f t="shared" si="12"/>
         <v>23.960999999999999</v>
       </c>
-      <c r="F81" s="24">
-        <f>F54/1000</f>
+      <c r="F81" s="20">
+        <f t="shared" si="12"/>
         <v>9.5739999999999998</v>
       </c>
-      <c r="G81" s="24">
-        <f>G54/1000</f>
+      <c r="G81" s="20">
+        <f t="shared" si="12"/>
         <v>3.2269999999999999</v>
       </c>
-      <c r="H81" s="24">
-        <f>H54/1000</f>
+      <c r="H81" s="20">
+        <f t="shared" si="12"/>
         <v>12.057</v>
       </c>
-      <c r="I81" s="24">
-        <f>I54/1000</f>
+      <c r="I81" s="20">
+        <f t="shared" si="12"/>
         <v>20.506</v>
       </c>
-      <c r="J81" s="24">
-        <f>J54/1000</f>
+      <c r="J81" s="20">
+        <f t="shared" si="12"/>
         <v>5.0460000000000003</v>
       </c>
-      <c r="K81" s="24">
-        <f>K54/1000</f>
+      <c r="K81" s="20">
+        <f t="shared" si="12"/>
         <v>17.221</v>
       </c>
-      <c r="L81" s="24">
-        <f>L54/1000</f>
+      <c r="L81" s="20">
+        <f t="shared" si="12"/>
         <v>21.102</v>
       </c>
-      <c r="M81" s="24">
-        <f>M54/1000</f>
+      <c r="M81" s="20">
+        <f t="shared" si="12"/>
         <v>20.108000000000001</v>
       </c>
-      <c r="N81" s="24">
-        <f>N54/1000</f>
+      <c r="N81" s="20">
+        <f t="shared" si="12"/>
         <v>22.574000000000002</v>
       </c>
-      <c r="O81" s="24">
-        <f>O54/1000</f>
+      <c r="O81" s="20">
+        <f t="shared" si="12"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="P81" s="24">
-        <f>P54/1000</f>
+      <c r="P81" s="20">
+        <f t="shared" si="12"/>
         <v>5.4219999999999997</v>
       </c>
-      <c r="Q81" s="24">
-        <f>Q54/1000</f>
+      <c r="Q81" s="20">
+        <f t="shared" si="12"/>
         <v>46.465000000000003</v>
       </c>
     </row>
@@ -44595,64 +44625,64 @@
       <c r="B82" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C82" s="24">
-        <f>C55/1000</f>
+      <c r="C82" s="20">
+        <f t="shared" ref="C82:Q82" si="13">C55/1000</f>
         <v>0.48799999999999999</v>
       </c>
-      <c r="D82" s="24">
-        <f>D55/1000</f>
+      <c r="D82" s="20">
+        <f t="shared" si="13"/>
         <v>119.244</v>
       </c>
-      <c r="E82" s="24">
-        <f>E55/1000</f>
+      <c r="E82" s="20">
+        <f t="shared" si="13"/>
         <v>10.972</v>
       </c>
-      <c r="F82" s="24">
-        <f>F55/1000</f>
+      <c r="F82" s="20">
+        <f t="shared" si="13"/>
         <v>2.0939999999999999</v>
       </c>
-      <c r="G82" s="24">
-        <f>G55/1000</f>
+      <c r="G82" s="20">
+        <f t="shared" si="13"/>
         <v>4.4870000000000001</v>
       </c>
-      <c r="H82" s="24">
-        <f>H55/1000</f>
+      <c r="H82" s="20">
+        <f t="shared" si="13"/>
         <v>3.1360000000000001</v>
       </c>
-      <c r="I82" s="24">
-        <f>I55/1000</f>
+      <c r="I82" s="20">
+        <f t="shared" si="13"/>
         <v>11.256</v>
       </c>
-      <c r="J82" s="24">
-        <f>J55/1000</f>
+      <c r="J82" s="20">
+        <f t="shared" si="13"/>
         <v>1.833</v>
       </c>
-      <c r="K82" s="24">
-        <f>K55/1000</f>
+      <c r="K82" s="20">
+        <f t="shared" si="13"/>
         <v>23.905000000000001</v>
       </c>
-      <c r="L82" s="24">
-        <f>L55/1000</f>
+      <c r="L82" s="20">
+        <f t="shared" si="13"/>
         <v>14.523999999999999</v>
       </c>
-      <c r="M82" s="24">
-        <f>M55/1000</f>
+      <c r="M82" s="20">
+        <f t="shared" si="13"/>
         <v>9.9079999999999995</v>
       </c>
-      <c r="N82" s="24">
-        <f>N55/1000</f>
+      <c r="N82" s="20">
+        <f t="shared" si="13"/>
         <v>28.725999999999999</v>
       </c>
-      <c r="O82" s="24">
-        <f>O55/1000</f>
+      <c r="O82" s="20">
+        <f t="shared" si="13"/>
         <v>8.4030000000000005</v>
       </c>
-      <c r="P82" s="24">
-        <f>P55/1000</f>
+      <c r="P82" s="20">
+        <f t="shared" si="13"/>
         <v>1.5509999999999999</v>
       </c>
-      <c r="Q82" s="24">
-        <f>Q55/1000</f>
+      <c r="Q82" s="20">
+        <f t="shared" si="13"/>
         <v>24.067</v>
       </c>
     </row>
@@ -44663,64 +44693,64 @@
       <c r="B83" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C83" s="24">
-        <f>C56/1000</f>
+      <c r="C83" s="20">
+        <f t="shared" ref="C83:Q83" si="14">C56/1000</f>
         <v>1.8879999999999999</v>
       </c>
-      <c r="D83" s="24">
-        <f>D56/1000</f>
+      <c r="D83" s="20">
+        <f t="shared" si="14"/>
         <v>276.22500000000002</v>
       </c>
-      <c r="E83" s="24">
-        <f>E56/1000</f>
+      <c r="E83" s="20">
+        <f t="shared" si="14"/>
         <v>59.914000000000001</v>
       </c>
-      <c r="F83" s="24">
-        <f>F56/1000</f>
+      <c r="F83" s="20">
+        <f t="shared" si="14"/>
         <v>24.806000000000001</v>
       </c>
-      <c r="G83" s="24">
-        <f>G56/1000</f>
+      <c r="G83" s="20">
+        <f t="shared" si="14"/>
         <v>6.8449999999999998</v>
       </c>
-      <c r="H83" s="24">
-        <f>H56/1000</f>
+      <c r="H83" s="20">
+        <f t="shared" si="14"/>
         <v>15.542999999999999</v>
       </c>
-      <c r="I83" s="24">
-        <f>I56/1000</f>
+      <c r="I83" s="20">
+        <f t="shared" si="14"/>
         <v>27.405999999999999</v>
       </c>
-      <c r="J83" s="24">
-        <f>J56/1000</f>
+      <c r="J83" s="20">
+        <f t="shared" si="14"/>
         <v>5.0030000000000001</v>
       </c>
-      <c r="K83" s="24">
-        <f>K56/1000</f>
+      <c r="K83" s="20">
+        <f t="shared" si="14"/>
         <v>34.587000000000003</v>
       </c>
-      <c r="L83" s="24">
-        <f>L56/1000</f>
+      <c r="L83" s="20">
+        <f t="shared" si="14"/>
         <v>29.013000000000002</v>
       </c>
-      <c r="M83" s="24">
-        <f>M56/1000</f>
+      <c r="M83" s="20">
+        <f t="shared" si="14"/>
         <v>27.965</v>
       </c>
-      <c r="N83" s="24">
-        <f>N56/1000</f>
+      <c r="N83" s="20">
+        <f t="shared" si="14"/>
         <v>27.896000000000001</v>
       </c>
-      <c r="O83" s="24">
-        <f>O56/1000</f>
+      <c r="O83" s="20">
+        <f t="shared" si="14"/>
         <v>17.247</v>
       </c>
-      <c r="P83" s="24">
-        <f>P56/1000</f>
+      <c r="P83" s="20">
+        <f t="shared" si="14"/>
         <v>8.0079999999999991</v>
       </c>
-      <c r="Q83" s="24">
-        <f>Q56/1000</f>
+      <c r="Q83" s="20">
+        <f t="shared" si="14"/>
         <v>89.06</v>
       </c>
     </row>
@@ -44731,64 +44761,64 @@
       <c r="B84" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C84" s="24">
-        <f>C57/1000</f>
+      <c r="C84" s="20">
+        <f t="shared" ref="C84:Q84" si="15">C57/1000</f>
         <v>1.8420000000000001</v>
       </c>
-      <c r="D84" s="24">
-        <f>D57/1000</f>
+      <c r="D84" s="20">
+        <f t="shared" si="15"/>
         <v>189.16399999999999</v>
       </c>
-      <c r="E84" s="24">
-        <f>E57/1000</f>
+      <c r="E84" s="20">
+        <f t="shared" si="15"/>
         <v>74.375</v>
       </c>
-      <c r="F84" s="24">
-        <f>F57/1000</f>
+      <c r="F84" s="20">
+        <f t="shared" si="15"/>
         <v>6.1580000000000004</v>
       </c>
-      <c r="G84" s="24">
-        <f>G57/1000</f>
+      <c r="G84" s="20">
+        <f t="shared" si="15"/>
         <v>4.4059999999999997</v>
       </c>
-      <c r="H84" s="24">
-        <f>H57/1000</f>
+      <c r="H84" s="20">
+        <f t="shared" si="15"/>
         <v>10.250999999999999</v>
       </c>
-      <c r="I84" s="24">
-        <f>I57/1000</f>
+      <c r="I84" s="20">
+        <f t="shared" si="15"/>
         <v>18.349</v>
       </c>
-      <c r="J84" s="24">
-        <f>J57/1000</f>
+      <c r="J84" s="20">
+        <f t="shared" si="15"/>
         <v>4.7240000000000002</v>
       </c>
-      <c r="K84" s="24">
-        <f>K57/1000</f>
+      <c r="K84" s="20">
+        <f t="shared" si="15"/>
         <v>14.944000000000001</v>
       </c>
-      <c r="L84" s="24">
-        <f>L57/1000</f>
+      <c r="L84" s="20">
+        <f t="shared" si="15"/>
         <v>23.631</v>
       </c>
-      <c r="M84" s="24">
-        <f>M57/1000</f>
+      <c r="M84" s="20">
+        <f t="shared" si="15"/>
         <v>10.587</v>
       </c>
-      <c r="N84" s="24">
-        <f>N57/1000</f>
+      <c r="N84" s="20">
+        <f t="shared" si="15"/>
         <v>14.625</v>
       </c>
-      <c r="O84" s="24">
-        <f>O57/1000</f>
+      <c r="O84" s="20">
+        <f t="shared" si="15"/>
         <v>7.1139999999999999</v>
       </c>
-      <c r="P84" s="24">
-        <f>P57/1000</f>
+      <c r="P84" s="20">
+        <f t="shared" si="15"/>
         <v>5.3819999999999997</v>
       </c>
-      <c r="Q84" s="24">
-        <f>Q57/1000</f>
+      <c r="Q84" s="20">
+        <f t="shared" si="15"/>
         <v>71.02</v>
       </c>
     </row>
@@ -44799,64 +44829,64 @@
       <c r="B85" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C85" s="24">
-        <f>C58/1000</f>
+      <c r="C85" s="20">
+        <f t="shared" ref="C85:Q85" si="16">C58/1000</f>
         <v>1.4770000000000001</v>
       </c>
-      <c r="D85" s="24">
-        <f>D58/1000</f>
+      <c r="D85" s="20">
+        <f t="shared" si="16"/>
         <v>103.631</v>
       </c>
-      <c r="E85" s="24">
-        <f>E58/1000</f>
+      <c r="E85" s="20">
+        <f t="shared" si="16"/>
         <v>20.581</v>
       </c>
-      <c r="F85" s="24">
-        <f>F58/1000</f>
+      <c r="F85" s="20">
+        <f t="shared" si="16"/>
         <v>6.431</v>
       </c>
-      <c r="G85" s="24">
-        <f>G58/1000</f>
+      <c r="G85" s="20">
+        <f t="shared" si="16"/>
         <v>5.6440000000000001</v>
       </c>
-      <c r="H85" s="24">
-        <f>H58/1000</f>
+      <c r="H85" s="20">
+        <f t="shared" si="16"/>
         <v>8.8620000000000001</v>
       </c>
-      <c r="I85" s="24">
-        <f>I58/1000</f>
+      <c r="I85" s="20">
+        <f t="shared" si="16"/>
         <v>7.7649999999999997</v>
       </c>
-      <c r="J85" s="24">
-        <f>J58/1000</f>
+      <c r="J85" s="20">
+        <f t="shared" si="16"/>
         <v>4.4320000000000004</v>
       </c>
-      <c r="K85" s="24">
-        <f>K58/1000</f>
+      <c r="K85" s="20">
+        <f t="shared" si="16"/>
         <v>10.378</v>
       </c>
-      <c r="L85" s="24">
-        <f>L58/1000</f>
+      <c r="L85" s="20">
+        <f t="shared" si="16"/>
         <v>13.065</v>
       </c>
-      <c r="M85" s="24">
-        <f>M58/1000</f>
+      <c r="M85" s="20">
+        <f t="shared" si="16"/>
         <v>8.0679999999999996</v>
       </c>
-      <c r="N85" s="24">
-        <f>N58/1000</f>
+      <c r="N85" s="20">
+        <f t="shared" si="16"/>
         <v>12.035</v>
       </c>
-      <c r="O85" s="24">
-        <f>O58/1000</f>
+      <c r="O85" s="20">
+        <f t="shared" si="16"/>
         <v>6.37</v>
       </c>
-      <c r="P85" s="24">
-        <f>P58/1000</f>
+      <c r="P85" s="20">
+        <f t="shared" si="16"/>
         <v>4.1740000000000004</v>
       </c>
-      <c r="Q85" s="24">
-        <f>Q58/1000</f>
+      <c r="Q85" s="20">
+        <f t="shared" si="16"/>
         <v>42.106999999999999</v>
       </c>
     </row>
@@ -44867,64 +44897,64 @@
       <c r="B86" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C86" s="24">
-        <f>C59/1000</f>
+      <c r="C86" s="20">
+        <f t="shared" ref="C86:Q86" si="17">C59/1000</f>
         <v>3.19</v>
       </c>
-      <c r="D86" s="24">
-        <f>D59/1000</f>
+      <c r="D86" s="20">
+        <f t="shared" si="17"/>
         <v>151.16</v>
       </c>
-      <c r="E86" s="24">
-        <f>E59/1000</f>
+      <c r="E86" s="20">
+        <f t="shared" si="17"/>
         <v>32.409999999999997</v>
       </c>
-      <c r="F86" s="24">
-        <f>F59/1000</f>
+      <c r="F86" s="20">
+        <f t="shared" si="17"/>
         <v>8.2680000000000007</v>
       </c>
-      <c r="G86" s="24">
-        <f>G59/1000</f>
+      <c r="G86" s="20">
+        <f t="shared" si="17"/>
         <v>11.994</v>
       </c>
-      <c r="H86" s="24">
-        <f>H59/1000</f>
+      <c r="H86" s="20">
+        <f t="shared" si="17"/>
         <v>11.252000000000001</v>
       </c>
-      <c r="I86" s="24">
-        <f>I59/1000</f>
+      <c r="I86" s="20">
+        <f t="shared" si="17"/>
         <v>16.513000000000002</v>
       </c>
-      <c r="J86" s="24">
-        <f>J59/1000</f>
+      <c r="J86" s="20">
+        <f t="shared" si="17"/>
         <v>5.1740000000000004</v>
       </c>
-      <c r="K86" s="24">
-        <f>K59/1000</f>
+      <c r="K86" s="20">
+        <f t="shared" si="17"/>
         <v>17.71</v>
       </c>
-      <c r="L86" s="24">
-        <f>L59/1000</f>
+      <c r="L86" s="20">
+        <f t="shared" si="17"/>
         <v>13.923999999999999</v>
       </c>
-      <c r="M86" s="24">
-        <f>M59/1000</f>
+      <c r="M86" s="20">
+        <f t="shared" si="17"/>
         <v>8.452</v>
       </c>
-      <c r="N86" s="24">
-        <f>N59/1000</f>
+      <c r="N86" s="20">
+        <f t="shared" si="17"/>
         <v>18.335999999999999</v>
       </c>
-      <c r="O86" s="24">
-        <f>O59/1000</f>
+      <c r="O86" s="20">
+        <f t="shared" si="17"/>
         <v>7.1269999999999998</v>
       </c>
-      <c r="P86" s="24">
-        <f>P59/1000</f>
+      <c r="P86" s="20">
+        <f t="shared" si="17"/>
         <v>9.3699999999999992</v>
       </c>
-      <c r="Q86" s="24">
-        <f>Q59/1000</f>
+      <c r="Q86" s="20">
+        <f t="shared" si="17"/>
         <v>72.481999999999999</v>
       </c>
     </row>
@@ -44935,64 +44965,64 @@
       <c r="B87" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="24">
-        <f>C60/1000</f>
+      <c r="C87" s="20">
+        <f t="shared" ref="C87:Q87" si="18">C60/1000</f>
         <v>2.2759999999999998</v>
       </c>
-      <c r="D87" s="24">
-        <f>D60/1000</f>
+      <c r="D87" s="20">
+        <f t="shared" si="18"/>
         <v>140.40199999999999</v>
       </c>
-      <c r="E87" s="24">
-        <f>E60/1000</f>
+      <c r="E87" s="20">
+        <f t="shared" si="18"/>
         <v>25.297999999999998</v>
       </c>
-      <c r="F87" s="24">
-        <f>F60/1000</f>
+      <c r="F87" s="20">
+        <f t="shared" si="18"/>
         <v>9.4410000000000007</v>
       </c>
-      <c r="G87" s="24">
-        <f>G60/1000</f>
+      <c r="G87" s="20">
+        <f t="shared" si="18"/>
         <v>4.26</v>
       </c>
-      <c r="H87" s="24">
-        <f>H60/1000</f>
+      <c r="H87" s="20">
+        <f t="shared" si="18"/>
         <v>7.5819999999999999</v>
       </c>
-      <c r="I87" s="24">
-        <f>I60/1000</f>
+      <c r="I87" s="20">
+        <f t="shared" si="18"/>
         <v>9.6880000000000006</v>
       </c>
-      <c r="J87" s="24">
-        <f>J60/1000</f>
+      <c r="J87" s="20">
+        <f t="shared" si="18"/>
         <v>6.4960000000000004</v>
       </c>
-      <c r="K87" s="24">
-        <f>K60/1000</f>
+      <c r="K87" s="20">
+        <f t="shared" si="18"/>
         <v>17.404</v>
       </c>
-      <c r="L87" s="24">
-        <f>L60/1000</f>
+      <c r="L87" s="20">
+        <f t="shared" si="18"/>
         <v>22.007999999999999</v>
       </c>
-      <c r="M87" s="24">
-        <f>M60/1000</f>
+      <c r="M87" s="20">
+        <f t="shared" si="18"/>
         <v>7.33</v>
       </c>
-      <c r="N87" s="24">
-        <f>N60/1000</f>
+      <c r="N87" s="20">
+        <f t="shared" si="18"/>
         <v>22.710999999999999</v>
       </c>
-      <c r="O87" s="24">
-        <f>O60/1000</f>
+      <c r="O87" s="20">
+        <f t="shared" si="18"/>
         <v>6.5609999999999999</v>
       </c>
-      <c r="P87" s="24">
-        <f>P60/1000</f>
+      <c r="P87" s="20">
+        <f t="shared" si="18"/>
         <v>7.4720000000000004</v>
       </c>
-      <c r="Q87" s="24">
-        <f>Q60/1000</f>
+      <c r="Q87" s="20">
+        <f t="shared" si="18"/>
         <v>64.177999999999997</v>
       </c>
     </row>
@@ -45003,64 +45033,64 @@
       <c r="B88" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="24">
-        <f>C61/1000</f>
+      <c r="C88" s="20">
+        <f t="shared" ref="C88:Q88" si="19">C61/1000</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="D88" s="24">
-        <f>D61/1000</f>
+      <c r="D88" s="20">
+        <f t="shared" si="19"/>
         <v>44.295000000000002</v>
       </c>
-      <c r="E88" s="24">
-        <f>E61/1000</f>
+      <c r="E88" s="20">
+        <f t="shared" si="19"/>
         <v>7.843</v>
       </c>
-      <c r="F88" s="24">
-        <f>F61/1000</f>
+      <c r="F88" s="20">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G88" s="24">
-        <f>G61/1000</f>
+      <c r="G88" s="20">
+        <f t="shared" si="19"/>
         <v>2.4860000000000002</v>
       </c>
-      <c r="H88" s="24">
-        <f>H61/1000</f>
+      <c r="H88" s="20">
+        <f t="shared" si="19"/>
         <v>6.5469999999999997</v>
       </c>
-      <c r="I88" s="24">
-        <f>I61/1000</f>
+      <c r="I88" s="20">
+        <f t="shared" si="19"/>
         <v>2.5790000000000002</v>
       </c>
-      <c r="J88" s="24">
-        <f>J61/1000</f>
+      <c r="J88" s="20">
+        <f t="shared" si="19"/>
         <v>3.7959999999999998</v>
       </c>
-      <c r="K88" s="24">
-        <f>K61/1000</f>
+      <c r="K88" s="20">
+        <f t="shared" si="19"/>
         <v>5.4829999999999997</v>
       </c>
-      <c r="L88" s="24">
-        <f>L61/1000</f>
+      <c r="L88" s="20">
+        <f t="shared" si="19"/>
         <v>6.5750000000000002</v>
       </c>
-      <c r="M88" s="24">
-        <f>M61/1000</f>
+      <c r="M88" s="20">
+        <f t="shared" si="19"/>
         <v>2.238</v>
       </c>
-      <c r="N88" s="24">
-        <f>N61/1000</f>
+      <c r="N88" s="20">
+        <f t="shared" si="19"/>
         <v>1.585</v>
       </c>
-      <c r="O88" s="24">
-        <f>O61/1000</f>
+      <c r="O88" s="20">
+        <f t="shared" si="19"/>
         <v>2.464</v>
       </c>
-      <c r="P88" s="24">
-        <f>P61/1000</f>
+      <c r="P88" s="20">
+        <f t="shared" si="19"/>
         <v>2.206</v>
       </c>
-      <c r="Q88" s="24">
-        <f>Q61/1000</f>
+      <c r="Q88" s="20">
+        <f t="shared" si="19"/>
         <v>17.021000000000001</v>
       </c>
     </row>
@@ -45071,64 +45101,64 @@
       <c r="B89" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="24">
-        <f>C62/1000</f>
+      <c r="C89" s="20">
+        <f t="shared" ref="C89:Q89" si="20">C62/1000</f>
         <v>2.0110000000000001</v>
       </c>
-      <c r="D89" s="24">
-        <f>D62/1000</f>
+      <c r="D89" s="20">
+        <f t="shared" si="20"/>
         <v>489.42200000000003</v>
       </c>
-      <c r="E89" s="24">
-        <f>E62/1000</f>
+      <c r="E89" s="20">
+        <f t="shared" si="20"/>
         <v>51.305</v>
       </c>
-      <c r="F89" s="24">
-        <f>F62/1000</f>
+      <c r="F89" s="20">
+        <f t="shared" si="20"/>
         <v>37.180999999999997</v>
       </c>
-      <c r="G89" s="24">
-        <f>G62/1000</f>
+      <c r="G89" s="20">
+        <f t="shared" si="20"/>
         <v>8.17</v>
       </c>
-      <c r="H89" s="24">
-        <f>H62/1000</f>
+      <c r="H89" s="20">
+        <f t="shared" si="20"/>
         <v>27.074999999999999</v>
       </c>
-      <c r="I89" s="24">
-        <f>I62/1000</f>
+      <c r="I89" s="20">
+        <f t="shared" si="20"/>
         <v>68.855999999999995</v>
       </c>
-      <c r="J89" s="24">
-        <f>J62/1000</f>
+      <c r="J89" s="20">
+        <f t="shared" si="20"/>
         <v>13.156000000000001</v>
       </c>
-      <c r="K89" s="24">
-        <f>K62/1000</f>
+      <c r="K89" s="20">
+        <f t="shared" si="20"/>
         <v>92.837999999999994</v>
       </c>
-      <c r="L89" s="24">
-        <f>L62/1000</f>
+      <c r="L89" s="20">
+        <f t="shared" si="20"/>
         <v>71.022000000000006</v>
       </c>
-      <c r="M89" s="24">
-        <f>M62/1000</f>
+      <c r="M89" s="20">
+        <f t="shared" si="20"/>
         <v>59.054000000000002</v>
       </c>
-      <c r="N89" s="24">
-        <f>N62/1000</f>
+      <c r="N89" s="20">
+        <f t="shared" si="20"/>
         <v>24.975999999999999</v>
       </c>
-      <c r="O89" s="24">
-        <f>O62/1000</f>
+      <c r="O89" s="20">
+        <f t="shared" si="20"/>
         <v>25.594999999999999</v>
       </c>
-      <c r="P89" s="24">
-        <f>P62/1000</f>
+      <c r="P89" s="20">
+        <f t="shared" si="20"/>
         <v>23.917999999999999</v>
       </c>
-      <c r="Q89" s="24">
-        <f>Q62/1000</f>
+      <c r="Q89" s="20">
+        <f t="shared" si="20"/>
         <v>148.21</v>
       </c>
     </row>
@@ -45139,64 +45169,64 @@
       <c r="B90" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C90" s="24">
-        <f>C63/1000</f>
+      <c r="C90" s="20">
+        <f t="shared" ref="C90:Q90" si="21">C63/1000</f>
         <v>0.69299999999999995</v>
       </c>
-      <c r="D90" s="24">
-        <f>D63/1000</f>
+      <c r="D90" s="20">
+        <f t="shared" si="21"/>
         <v>100.16</v>
       </c>
-      <c r="E90" s="24">
-        <f>E63/1000</f>
+      <c r="E90" s="20">
+        <f t="shared" si="21"/>
         <v>15.52</v>
       </c>
-      <c r="F90" s="24">
-        <f>F63/1000</f>
+      <c r="F90" s="20">
+        <f t="shared" si="21"/>
         <v>3.819</v>
       </c>
-      <c r="G90" s="24">
-        <f>G63/1000</f>
+      <c r="G90" s="20">
+        <f t="shared" si="21"/>
         <v>3.39</v>
       </c>
-      <c r="H90" s="24">
-        <f>H63/1000</f>
+      <c r="H90" s="20">
+        <f t="shared" si="21"/>
         <v>4.5350000000000001</v>
       </c>
-      <c r="I90" s="24">
-        <f>I63/1000</f>
+      <c r="I90" s="20">
+        <f t="shared" si="21"/>
         <v>28.652999999999999</v>
       </c>
-      <c r="J90" s="24">
-        <f>J63/1000</f>
+      <c r="J90" s="20">
+        <f t="shared" si="21"/>
         <v>2.78</v>
       </c>
-      <c r="K90" s="24">
-        <f>K63/1000</f>
+      <c r="K90" s="20">
+        <f t="shared" si="21"/>
         <v>20.529</v>
       </c>
-      <c r="L90" s="24">
-        <f>L63/1000</f>
+      <c r="L90" s="20">
+        <f t="shared" si="21"/>
         <v>8.2889999999999997</v>
       </c>
-      <c r="M90" s="24">
-        <f>M63/1000</f>
+      <c r="M90" s="20">
+        <f t="shared" si="21"/>
         <v>3.92</v>
       </c>
-      <c r="N90" s="24">
-        <f>N63/1000</f>
+      <c r="N90" s="20">
+        <f t="shared" si="21"/>
         <v>3.1280000000000001</v>
       </c>
-      <c r="O90" s="24">
-        <f>O63/1000</f>
+      <c r="O90" s="20">
+        <f t="shared" si="21"/>
         <v>3.79</v>
       </c>
-      <c r="P90" s="24">
-        <f>P63/1000</f>
+      <c r="P90" s="20">
+        <f t="shared" si="21"/>
         <v>2.8849999999999998</v>
       </c>
-      <c r="Q90" s="24">
-        <f>Q63/1000</f>
+      <c r="Q90" s="20">
+        <f t="shared" si="21"/>
         <v>30.689</v>
       </c>
     </row>
@@ -45207,64 +45237,64 @@
       <c r="B91" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C91" s="24">
-        <f>C64/1000</f>
+      <c r="C91" s="20">
+        <f t="shared" ref="C91:Q91" si="22">C64/1000</f>
         <v>2.09</v>
       </c>
-      <c r="D91" s="24">
-        <f>D64/1000</f>
+      <c r="D91" s="20">
+        <f t="shared" si="22"/>
         <v>67.049000000000007</v>
       </c>
-      <c r="E91" s="24">
-        <f>E64/1000</f>
+      <c r="E91" s="20">
+        <f t="shared" si="22"/>
         <v>17.527000000000001</v>
       </c>
-      <c r="F91" s="24">
-        <f>F64/1000</f>
+      <c r="F91" s="20">
+        <f t="shared" si="22"/>
         <v>3.2970000000000002</v>
       </c>
-      <c r="G91" s="24">
-        <f>G64/1000</f>
+      <c r="G91" s="20">
+        <f t="shared" si="22"/>
         <v>2.2090000000000001</v>
       </c>
-      <c r="H91" s="24">
-        <f>H64/1000</f>
+      <c r="H91" s="20">
+        <f t="shared" si="22"/>
         <v>5.8049999999999997</v>
       </c>
-      <c r="I91" s="24">
-        <f>I64/1000</f>
+      <c r="I91" s="20">
+        <f t="shared" si="22"/>
         <v>6.1349999999999998</v>
       </c>
-      <c r="J91" s="24">
-        <f>J64/1000</f>
+      <c r="J91" s="20">
+        <f t="shared" si="22"/>
         <v>4.9649999999999999</v>
       </c>
-      <c r="K91" s="24">
-        <f>K64/1000</f>
+      <c r="K91" s="20">
+        <f t="shared" si="22"/>
         <v>6.5629999999999997</v>
       </c>
-      <c r="L91" s="24">
-        <f>L64/1000</f>
+      <c r="L91" s="20">
+        <f t="shared" si="22"/>
         <v>7.6639999999999997</v>
       </c>
-      <c r="M91" s="24">
-        <f>M64/1000</f>
+      <c r="M91" s="20">
+        <f t="shared" si="22"/>
         <v>4.1239999999999997</v>
       </c>
-      <c r="N91" s="24">
-        <f>N64/1000</f>
+      <c r="N91" s="20">
+        <f t="shared" si="22"/>
         <v>2.573</v>
       </c>
-      <c r="O91" s="24">
-        <f>O64/1000</f>
+      <c r="O91" s="20">
+        <f t="shared" si="22"/>
         <v>3.117</v>
       </c>
-      <c r="P91" s="24">
-        <f>P64/1000</f>
+      <c r="P91" s="20">
+        <f t="shared" si="22"/>
         <v>6.0289999999999999</v>
       </c>
-      <c r="Q91" s="24">
-        <f>Q64/1000</f>
+      <c r="Q91" s="20">
+        <f t="shared" si="22"/>
         <v>52.844999999999999</v>
       </c>
     </row>
@@ -45275,64 +45305,64 @@
       <c r="B92" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C92" s="24">
-        <f>C65/1000</f>
+      <c r="C92" s="20">
+        <f t="shared" ref="C92:Q92" si="23">C65/1000</f>
         <v>2.3679999999999999</v>
       </c>
-      <c r="D92" s="24">
-        <f>D65/1000</f>
+      <c r="D92" s="20">
+        <f t="shared" si="23"/>
         <v>156.18100000000001</v>
       </c>
-      <c r="E92" s="24">
-        <f>E65/1000</f>
+      <c r="E92" s="20">
+        <f t="shared" si="23"/>
         <v>31.524000000000001</v>
       </c>
-      <c r="F92" s="24">
-        <f>F65/1000</f>
+      <c r="F92" s="20">
+        <f t="shared" si="23"/>
         <v>4.2380000000000004</v>
       </c>
-      <c r="G92" s="24">
-        <f>G65/1000</f>
+      <c r="G92" s="20">
+        <f t="shared" si="23"/>
         <v>2.6320000000000001</v>
       </c>
-      <c r="H92" s="24">
-        <f>H65/1000</f>
+      <c r="H92" s="20">
+        <f t="shared" si="23"/>
         <v>11.726000000000001</v>
       </c>
-      <c r="I92" s="24">
-        <f>I65/1000</f>
+      <c r="I92" s="20">
+        <f t="shared" si="23"/>
         <v>22.526</v>
       </c>
-      <c r="J92" s="24">
-        <f>J65/1000</f>
+      <c r="J92" s="20">
+        <f t="shared" si="23"/>
         <v>7.2069999999999999</v>
       </c>
-      <c r="K92" s="24">
-        <f>K65/1000</f>
+      <c r="K92" s="20">
+        <f t="shared" si="23"/>
         <v>20.457000000000001</v>
       </c>
-      <c r="L92" s="24">
-        <f>L65/1000</f>
+      <c r="L92" s="20">
+        <f t="shared" si="23"/>
         <v>26.276</v>
       </c>
-      <c r="M92" s="24">
-        <f>M65/1000</f>
+      <c r="M92" s="20">
+        <f t="shared" si="23"/>
         <v>9.0619999999999994</v>
       </c>
-      <c r="N92" s="24">
-        <f>N65/1000</f>
+      <c r="N92" s="20">
+        <f t="shared" si="23"/>
         <v>10.448</v>
       </c>
-      <c r="O92" s="24">
-        <f>O65/1000</f>
+      <c r="O92" s="20">
+        <f t="shared" si="23"/>
         <v>7.5439999999999996</v>
       </c>
-      <c r="P92" s="24">
-        <f>P65/1000</f>
+      <c r="P92" s="20">
+        <f t="shared" si="23"/>
         <v>13.887</v>
       </c>
-      <c r="Q92" s="24">
-        <f>Q65/1000</f>
+      <c r="Q92" s="20">
+        <f t="shared" si="23"/>
         <v>108.297</v>
       </c>
     </row>
@@ -45343,64 +45373,64 @@
       <c r="B93" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C93" s="24">
-        <f>C66/1000</f>
+      <c r="C93" s="20">
+        <f t="shared" ref="C93:Q93" si="24">C66/1000</f>
         <v>0.17399999999999999</v>
       </c>
-      <c r="D93" s="24">
-        <f>D66/1000</f>
+      <c r="D93" s="20">
+        <f t="shared" si="24"/>
         <v>3.9470000000000001</v>
       </c>
-      <c r="E93" s="24">
-        <f>E66/1000</f>
+      <c r="E93" s="20">
+        <f t="shared" si="24"/>
         <v>1.9990000000000001</v>
       </c>
-      <c r="F93" s="24">
-        <f>F66/1000</f>
+      <c r="F93" s="20">
+        <f t="shared" si="24"/>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G93" s="24">
-        <f>G66/1000</f>
+      <c r="G93" s="20">
+        <f t="shared" si="24"/>
         <v>0.17399999999999999</v>
       </c>
-      <c r="H93" s="24">
-        <f>H66/1000</f>
+      <c r="H93" s="20">
+        <f t="shared" si="24"/>
         <v>0.21</v>
       </c>
-      <c r="I93" s="24">
-        <f>I66/1000</f>
+      <c r="I93" s="20">
+        <f t="shared" si="24"/>
         <v>0.107</v>
       </c>
-      <c r="J93" s="24">
-        <f>J66/1000</f>
+      <c r="J93" s="20">
+        <f t="shared" si="24"/>
         <v>0.23699999999999999</v>
       </c>
-      <c r="K93" s="24">
-        <f>K66/1000</f>
+      <c r="K93" s="20">
+        <f t="shared" si="24"/>
         <v>0.375</v>
       </c>
-      <c r="L93" s="24">
-        <f>L66/1000</f>
+      <c r="L93" s="20">
+        <f t="shared" si="24"/>
         <v>0.154</v>
       </c>
-      <c r="M93" s="24">
-        <f>M66/1000</f>
+      <c r="M93" s="20">
+        <f t="shared" si="24"/>
         <v>0.16500000000000001</v>
       </c>
-      <c r="N93" s="24">
-        <f>N66/1000</f>
+      <c r="N93" s="20">
+        <f t="shared" si="24"/>
         <v>0.29799999999999999</v>
       </c>
-      <c r="O93" s="24">
-        <f>O66/1000</f>
+      <c r="O93" s="20">
+        <f t="shared" si="24"/>
         <v>0.129</v>
       </c>
-      <c r="P93" s="24">
-        <f>P66/1000</f>
+      <c r="P93" s="20">
+        <f t="shared" si="24"/>
         <v>0.96699999999999997</v>
       </c>
-      <c r="Q93" s="24">
-        <f>Q66/1000</f>
+      <c r="Q93" s="20">
+        <f t="shared" si="24"/>
         <v>7.5309999999999997</v>
       </c>
     </row>

--- a/raw_data/eurostat/nuts2_emp_sbs_9507.xlsx
+++ b/raw_data/eurostat/nuts2_emp_sbs_9507.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aml/AutoEmp/raw_data/eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3850DD13-F2AF-2E4D-A754-9E737E42BA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A1F065-F92F-414F-901F-FFBC5FB7C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40717,11 +40717,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="11" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
